--- a/BalanceSheet/HCA_bal.xlsx
+++ b/BalanceSheet/HCA_bal.xlsx
@@ -3561,10 +3561,8 @@
           <t>Common Stock (Net)</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>3000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>3000000.0</v>
@@ -3690,10 +3688,8 @@
           <t>Retained Earnings</t>
         </is>
       </c>
-      <c r="B27" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B27" s="0" t="n">
+        <v>735000000.0</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>777000000.0</v>
@@ -4200,10 +4196,8 @@
           <t>Shares (Common)</t>
         </is>
       </c>
-      <c r="B31" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B31" s="0" t="n">
+        <v>333715000.0</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>339426000.0</v>
